--- a/다담교육 공통부분 정리.xlsx
+++ b/다담교육 공통부분 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>header.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체크박스 컬럼 없음, 하단 버튼 없음. 나머지는 동일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>notice_detail.html</t>
   </si>
   <si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정, 삭제 버튼 없음. 나머지는 동일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동일한 폼에 값만 들어 있음. 폼은 동일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -116,44 +104,142 @@
     <t>shopping_basket_all.html</t>
   </si>
   <si>
-    <t>동일한 폼에 배송정보 개수만 다름.</t>
+    <t>[공지사항 목록]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[공지사항 상세화면]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거래원 신규등록/수정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_basket_choice.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[장바구니 주문/배송]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거래원 리스트]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거래원 매출현황]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거래원 리스트 - 신규등록]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[거래원 리스트 - 수정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_list.html</t>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_sales_list.html</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_register.html</t>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[공통부분 명칭] 및 공통부분 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 및 파일 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[헤더 부분]
-1. header_top에 김다담님 환영합니다. 의 사용자 이름만 다르고 나머지 부분 동일
-2. gnb에서 공지사항과 거래원관리 부분 동일
-3. 비밀번호 변경 팝업창 부분 동일</t>
+1. header_top에 김다담님 환영합니다. 의 사용자 이름만 다르고 나머지 부분 동일합니다.
+2. gnb에서 공지사항과 거래원관리 부분이 동일합니다.
+3. 비밀번호 변경 팝업창 부분이 동일합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[공지사항 좌측 메뉴]
-내용 동일, 경로만 다름</t>
+경로만 다르고 동일한 내용입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[거래원 관리 좌측 메뉴]
-내용 동일, 경로만 다름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[공지사항 목록]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[공지사항 상세화면]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[거래원 신규등록/수정]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_basket_choice.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[장바구니 주문/배송]</t>
+경로만 다르고 동일한 내용입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스 컬럼이 없고, 하단 버튼이 없습니다. 나머지는 동일합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정, 삭제 버튼이 없습니다. 나머지는 동일합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 폼에 값만 들어 있습니다. 폼은 등록ㆍ수정이 동일합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 폼에 배송정보 개수만 다릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사명 컬럼만 없고 나머지는 동일합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사명 컬럼이 없고, 상단 검색창의 거래원 명에 체크박스 3개가 있습니다.
+나머지는 동일합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로만 다르고 동일한 화면입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로만 다르고 동일한 화면입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,15 +264,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -306,13 +398,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,16 +501,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -354,6 +533,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,237 +843,381 @@
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19"/>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
+    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="9" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11" t="s">
+    <row r="32" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12"/>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
+    <row r="36" spans="2:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="12"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
+    <row r="40" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="12"/>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
+    <row r="44" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="12"/>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>25</v>
+      <c r="F44" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
